--- a/IC-Agile-User-Story-12022025.xlsx
+++ b/IC-Agile-User-Story-12022025.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20416"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28730"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Student\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\Desktop\mp\master\Software-Engineering-Assessment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{195A09E8-8AB0-47B2-8462-0A35728FD153}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2163897B-645B-4052-9685-34A1E2EA1371}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12105" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="11829" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Agile User Story" sheetId="1" r:id="rId1"/>
@@ -24,6 +24,17 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -498,15 +509,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>352425</xdr:colOff>
+          <xdr:colOff>353786</xdr:colOff>
           <xdr:row>2</xdr:row>
-          <xdr:rowOff>28575</xdr:rowOff>
+          <xdr:rowOff>27214</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>657225</xdr:colOff>
+          <xdr:colOff>658586</xdr:colOff>
           <xdr:row>2</xdr:row>
-          <xdr:rowOff>409575</xdr:rowOff>
+          <xdr:rowOff>408214</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -565,13 +576,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>352425</xdr:colOff>
+          <xdr:colOff>353786</xdr:colOff>
           <xdr:row>3</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>657225</xdr:colOff>
+          <xdr:colOff>658586</xdr:colOff>
           <xdr:row>3</xdr:row>
           <xdr:rowOff>381000</xdr:rowOff>
         </xdr:to>
@@ -632,13 +643,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>352425</xdr:colOff>
+          <xdr:colOff>353786</xdr:colOff>
           <xdr:row>3</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>657225</xdr:colOff>
+          <xdr:colOff>658586</xdr:colOff>
           <xdr:row>3</xdr:row>
           <xdr:rowOff>381000</xdr:rowOff>
         </xdr:to>
@@ -699,15 +710,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>352425</xdr:colOff>
+          <xdr:colOff>353786</xdr:colOff>
           <xdr:row>3</xdr:row>
-          <xdr:rowOff>28575</xdr:rowOff>
+          <xdr:rowOff>27214</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>657225</xdr:colOff>
+          <xdr:colOff>658586</xdr:colOff>
           <xdr:row>3</xdr:row>
-          <xdr:rowOff>409575</xdr:rowOff>
+          <xdr:rowOff>408214</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -766,15 +777,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>352425</xdr:colOff>
+          <xdr:colOff>353786</xdr:colOff>
           <xdr:row>4</xdr:row>
-          <xdr:rowOff>28575</xdr:rowOff>
+          <xdr:rowOff>27214</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>657225</xdr:colOff>
+          <xdr:colOff>658586</xdr:colOff>
           <xdr:row>4</xdr:row>
-          <xdr:rowOff>409575</xdr:rowOff>
+          <xdr:rowOff>408214</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -833,15 +844,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>352425</xdr:colOff>
+          <xdr:colOff>353786</xdr:colOff>
           <xdr:row>5</xdr:row>
-          <xdr:rowOff>28575</xdr:rowOff>
+          <xdr:rowOff>27214</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>657225</xdr:colOff>
+          <xdr:colOff>658586</xdr:colOff>
           <xdr:row>5</xdr:row>
-          <xdr:rowOff>409575</xdr:rowOff>
+          <xdr:rowOff>408214</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -900,15 +911,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>352425</xdr:colOff>
+          <xdr:colOff>353786</xdr:colOff>
           <xdr:row>6</xdr:row>
-          <xdr:rowOff>28575</xdr:rowOff>
+          <xdr:rowOff>27214</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>657225</xdr:colOff>
+          <xdr:colOff>658586</xdr:colOff>
           <xdr:row>6</xdr:row>
-          <xdr:rowOff>409575</xdr:rowOff>
+          <xdr:rowOff>408214</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -967,15 +978,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>352425</xdr:colOff>
+          <xdr:colOff>353786</xdr:colOff>
           <xdr:row>7</xdr:row>
-          <xdr:rowOff>28575</xdr:rowOff>
+          <xdr:rowOff>27214</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>657225</xdr:colOff>
+          <xdr:colOff>658586</xdr:colOff>
           <xdr:row>7</xdr:row>
-          <xdr:rowOff>409575</xdr:rowOff>
+          <xdr:rowOff>408214</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1034,15 +1045,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>352425</xdr:colOff>
+          <xdr:colOff>353786</xdr:colOff>
           <xdr:row>8</xdr:row>
-          <xdr:rowOff>28575</xdr:rowOff>
+          <xdr:rowOff>27214</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>657225</xdr:colOff>
+          <xdr:colOff>658586</xdr:colOff>
           <xdr:row>8</xdr:row>
-          <xdr:rowOff>409575</xdr:rowOff>
+          <xdr:rowOff>408214</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1101,15 +1112,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>352425</xdr:colOff>
+          <xdr:colOff>353786</xdr:colOff>
           <xdr:row>9</xdr:row>
-          <xdr:rowOff>28575</xdr:rowOff>
+          <xdr:rowOff>27214</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>657225</xdr:colOff>
+          <xdr:colOff>658586</xdr:colOff>
           <xdr:row>9</xdr:row>
-          <xdr:rowOff>409575</xdr:rowOff>
+          <xdr:rowOff>408214</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1168,15 +1179,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>352425</xdr:colOff>
+          <xdr:colOff>353786</xdr:colOff>
           <xdr:row>10</xdr:row>
-          <xdr:rowOff>28575</xdr:rowOff>
+          <xdr:rowOff>27214</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>657225</xdr:colOff>
+          <xdr:colOff>658586</xdr:colOff>
           <xdr:row>10</xdr:row>
-          <xdr:rowOff>409575</xdr:rowOff>
+          <xdr:rowOff>408214</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1235,15 +1246,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>352425</xdr:colOff>
+          <xdr:colOff>353786</xdr:colOff>
           <xdr:row>11</xdr:row>
-          <xdr:rowOff>28575</xdr:rowOff>
+          <xdr:rowOff>27214</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>657225</xdr:colOff>
+          <xdr:colOff>658586</xdr:colOff>
           <xdr:row>11</xdr:row>
-          <xdr:rowOff>409575</xdr:rowOff>
+          <xdr:rowOff>408214</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1302,15 +1313,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>352425</xdr:colOff>
+          <xdr:colOff>353786</xdr:colOff>
           <xdr:row>12</xdr:row>
-          <xdr:rowOff>28575</xdr:rowOff>
+          <xdr:rowOff>27214</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>657225</xdr:colOff>
+          <xdr:colOff>658586</xdr:colOff>
           <xdr:row>12</xdr:row>
-          <xdr:rowOff>409575</xdr:rowOff>
+          <xdr:rowOff>408214</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1369,15 +1380,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>352425</xdr:colOff>
+          <xdr:colOff>353786</xdr:colOff>
           <xdr:row>13</xdr:row>
-          <xdr:rowOff>28575</xdr:rowOff>
+          <xdr:rowOff>27214</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>657225</xdr:colOff>
+          <xdr:colOff>658586</xdr:colOff>
           <xdr:row>13</xdr:row>
-          <xdr:rowOff>409575</xdr:rowOff>
+          <xdr:rowOff>408214</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1436,15 +1447,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>352425</xdr:colOff>
+          <xdr:colOff>353786</xdr:colOff>
           <xdr:row>14</xdr:row>
-          <xdr:rowOff>28575</xdr:rowOff>
+          <xdr:rowOff>27214</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>657225</xdr:colOff>
+          <xdr:colOff>658586</xdr:colOff>
           <xdr:row>14</xdr:row>
-          <xdr:rowOff>409575</xdr:rowOff>
+          <xdr:rowOff>408214</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1503,15 +1514,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>352425</xdr:colOff>
+          <xdr:colOff>353786</xdr:colOff>
           <xdr:row>15</xdr:row>
-          <xdr:rowOff>28575</xdr:rowOff>
+          <xdr:rowOff>27214</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>657225</xdr:colOff>
+          <xdr:colOff>658586</xdr:colOff>
           <xdr:row>15</xdr:row>
-          <xdr:rowOff>409575</xdr:rowOff>
+          <xdr:rowOff>408214</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1570,15 +1581,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>352425</xdr:colOff>
+          <xdr:colOff>353786</xdr:colOff>
           <xdr:row>16</xdr:row>
-          <xdr:rowOff>28575</xdr:rowOff>
+          <xdr:rowOff>27214</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>657225</xdr:colOff>
+          <xdr:colOff>658586</xdr:colOff>
           <xdr:row>16</xdr:row>
-          <xdr:rowOff>409575</xdr:rowOff>
+          <xdr:rowOff>408214</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1637,15 +1648,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>352425</xdr:colOff>
+          <xdr:colOff>353786</xdr:colOff>
           <xdr:row>17</xdr:row>
-          <xdr:rowOff>28575</xdr:rowOff>
+          <xdr:rowOff>27214</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>657225</xdr:colOff>
+          <xdr:colOff>658586</xdr:colOff>
           <xdr:row>17</xdr:row>
-          <xdr:rowOff>409575</xdr:rowOff>
+          <xdr:rowOff>408214</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1704,15 +1715,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>352425</xdr:colOff>
+          <xdr:colOff>353786</xdr:colOff>
           <xdr:row>18</xdr:row>
-          <xdr:rowOff>28575</xdr:rowOff>
+          <xdr:rowOff>27214</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>657225</xdr:colOff>
+          <xdr:colOff>658586</xdr:colOff>
           <xdr:row>18</xdr:row>
-          <xdr:rowOff>409575</xdr:rowOff>
+          <xdr:rowOff>408214</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1771,15 +1782,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>352425</xdr:colOff>
+          <xdr:colOff>353786</xdr:colOff>
           <xdr:row>19</xdr:row>
-          <xdr:rowOff>28575</xdr:rowOff>
+          <xdr:rowOff>27214</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>657225</xdr:colOff>
+          <xdr:colOff>658586</xdr:colOff>
           <xdr:row>19</xdr:row>
-          <xdr:rowOff>409575</xdr:rowOff>
+          <xdr:rowOff>408214</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1838,15 +1849,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>352425</xdr:colOff>
+          <xdr:colOff>353786</xdr:colOff>
           <xdr:row>20</xdr:row>
-          <xdr:rowOff>28575</xdr:rowOff>
+          <xdr:rowOff>27214</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>657225</xdr:colOff>
+          <xdr:colOff>658586</xdr:colOff>
           <xdr:row>20</xdr:row>
-          <xdr:rowOff>409575</xdr:rowOff>
+          <xdr:rowOff>408214</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1905,15 +1916,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>352425</xdr:colOff>
+          <xdr:colOff>353786</xdr:colOff>
           <xdr:row>21</xdr:row>
-          <xdr:rowOff>28575</xdr:rowOff>
+          <xdr:rowOff>27214</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>657225</xdr:colOff>
+          <xdr:colOff>658586</xdr:colOff>
           <xdr:row>21</xdr:row>
-          <xdr:rowOff>409575</xdr:rowOff>
+          <xdr:rowOff>408214</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1972,15 +1983,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>352425</xdr:colOff>
+          <xdr:colOff>353786</xdr:colOff>
           <xdr:row>22</xdr:row>
-          <xdr:rowOff>28575</xdr:rowOff>
+          <xdr:rowOff>27214</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>657225</xdr:colOff>
+          <xdr:colOff>658586</xdr:colOff>
           <xdr:row>22</xdr:row>
-          <xdr:rowOff>409575</xdr:rowOff>
+          <xdr:rowOff>408214</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2039,15 +2050,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>352425</xdr:colOff>
+          <xdr:colOff>353786</xdr:colOff>
           <xdr:row>23</xdr:row>
-          <xdr:rowOff>28575</xdr:rowOff>
+          <xdr:rowOff>27214</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>657225</xdr:colOff>
+          <xdr:colOff>658586</xdr:colOff>
           <xdr:row>23</xdr:row>
-          <xdr:rowOff>409575</xdr:rowOff>
+          <xdr:rowOff>408214</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2106,15 +2117,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>352425</xdr:colOff>
+          <xdr:colOff>353786</xdr:colOff>
           <xdr:row>24</xdr:row>
-          <xdr:rowOff>28575</xdr:rowOff>
+          <xdr:rowOff>27214</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>657225</xdr:colOff>
+          <xdr:colOff>658586</xdr:colOff>
           <xdr:row>24</xdr:row>
-          <xdr:rowOff>409575</xdr:rowOff>
+          <xdr:rowOff>408214</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2172,7 +2183,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Agile Product Backlog"/>
@@ -2532,21 +2543,21 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F4" sqref="F4"/>
+      <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="12" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="3.375" style="2" customWidth="1"/>
-    <col min="2" max="3" width="20.875" style="2" customWidth="1"/>
-    <col min="4" max="6" width="50.875" style="2" customWidth="1"/>
+    <col min="1" max="1" width="3.35546875" style="2" customWidth="1"/>
+    <col min="2" max="3" width="20.85546875" style="2" customWidth="1"/>
+    <col min="4" max="6" width="50.85546875" style="2" customWidth="1"/>
     <col min="7" max="7" width="14" style="2" customWidth="1"/>
-    <col min="8" max="8" width="3.375" style="2" customWidth="1"/>
+    <col min="8" max="8" width="3.35546875" style="2" customWidth="1"/>
     <col min="9" max="9" width="19" style="2" customWidth="1"/>
-    <col min="10" max="16384" width="10.875" style="2"/>
+    <col min="10" max="16384" width="10.85546875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:15" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:15" ht="45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
@@ -2564,7 +2575,7 @@
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
     </row>
-    <row r="2" spans="2:15" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:15" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B2" s="8" t="s">
         <v>2</v>
       </c>
@@ -2592,7 +2603,7 @@
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
     </row>
-    <row r="3" spans="2:15" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:15" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B3" s="6">
         <v>1</v>
       </c>
@@ -2620,8 +2631,10 @@
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
     </row>
-    <row r="4" spans="2:15" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="6"/>
+    <row r="4" spans="2:15" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B4" s="6">
+        <v>2</v>
+      </c>
       <c r="C4" s="6" t="s">
         <v>8</v>
       </c>
@@ -2646,8 +2659,10 @@
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
     </row>
-    <row r="5" spans="2:15" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="6"/>
+    <row r="5" spans="2:15" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B5" s="6">
+        <v>3</v>
+      </c>
       <c r="C5" s="6" t="s">
         <v>8</v>
       </c>
@@ -2670,8 +2685,10 @@
       <c r="N5" s="1"/>
       <c r="O5" s="1"/>
     </row>
-    <row r="6" spans="2:15" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="6"/>
+    <row r="6" spans="2:15" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B6" s="6">
+        <v>4</v>
+      </c>
       <c r="C6" s="6" t="s">
         <v>8</v>
       </c>
@@ -2694,8 +2711,10 @@
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
     </row>
-    <row r="7" spans="2:15" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="6"/>
+    <row r="7" spans="2:15" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B7" s="6">
+        <v>5</v>
+      </c>
       <c r="C7" s="6" t="s">
         <v>8</v>
       </c>
@@ -2718,8 +2737,10 @@
       <c r="N7" s="1"/>
       <c r="O7" s="1"/>
     </row>
-    <row r="8" spans="2:15" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="6"/>
+    <row r="8" spans="2:15" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B8" s="6">
+        <v>6</v>
+      </c>
       <c r="C8" s="6" t="s">
         <v>8</v>
       </c>
@@ -2742,8 +2763,10 @@
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
     </row>
-    <row r="9" spans="2:15" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="6"/>
+    <row r="9" spans="2:15" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B9" s="6">
+        <v>7</v>
+      </c>
       <c r="C9" s="6" t="s">
         <v>8</v>
       </c>
@@ -2766,8 +2789,10 @@
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
     </row>
-    <row r="10" spans="2:15" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="6"/>
+    <row r="10" spans="2:15" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B10" s="6">
+        <v>8</v>
+      </c>
       <c r="C10" s="6" t="s">
         <v>8</v>
       </c>
@@ -2790,8 +2815,10 @@
       <c r="N10" s="1"/>
       <c r="O10" s="1"/>
     </row>
-    <row r="11" spans="2:15" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="6"/>
+    <row r="11" spans="2:15" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B11" s="6">
+        <v>9</v>
+      </c>
       <c r="C11" s="6" t="s">
         <v>8</v>
       </c>
@@ -2814,8 +2841,10 @@
       <c r="N11" s="1"/>
       <c r="O11" s="1"/>
     </row>
-    <row r="12" spans="2:15" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="6"/>
+    <row r="12" spans="2:15" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B12" s="6">
+        <v>10</v>
+      </c>
       <c r="C12" s="6" t="s">
         <v>8</v>
       </c>
@@ -2838,8 +2867,10 @@
       <c r="N12" s="1"/>
       <c r="O12" s="1"/>
     </row>
-    <row r="13" spans="2:15" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="6"/>
+    <row r="13" spans="2:15" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B13" s="6">
+        <v>11</v>
+      </c>
       <c r="C13" s="6" t="s">
         <v>8</v>
       </c>
@@ -2862,8 +2893,10 @@
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
     </row>
-    <row r="14" spans="2:15" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="6"/>
+    <row r="14" spans="2:15" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B14" s="6">
+        <v>12</v>
+      </c>
       <c r="C14" s="6" t="s">
         <v>8</v>
       </c>
@@ -2886,7 +2919,7 @@
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
     </row>
-    <row r="15" spans="2:15" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:15" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
       <c r="D15" s="6"/>
@@ -2902,7 +2935,7 @@
       <c r="N15" s="1"/>
       <c r="O15" s="1"/>
     </row>
-    <row r="16" spans="2:15" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:15" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>
       <c r="D16" s="6"/>
@@ -2918,7 +2951,7 @@
       <c r="N16" s="1"/>
       <c r="O16" s="1"/>
     </row>
-    <row r="17" spans="2:16" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:16" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B17" s="6"/>
       <c r="C17" s="6"/>
       <c r="D17" s="6"/>
@@ -2934,7 +2967,7 @@
       <c r="N17" s="1"/>
       <c r="O17" s="1"/>
     </row>
-    <row r="18" spans="2:16" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:16" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B18" s="6"/>
       <c r="C18" s="6"/>
       <c r="D18" s="6"/>
@@ -2950,7 +2983,7 @@
       <c r="N18" s="1"/>
       <c r="O18" s="1"/>
     </row>
-    <row r="19" spans="2:16" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:16" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
@@ -2966,7 +2999,7 @@
       <c r="N19" s="1"/>
       <c r="O19" s="1"/>
     </row>
-    <row r="20" spans="2:16" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:16" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B20" s="6"/>
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
@@ -2982,7 +3015,7 @@
       <c r="N20" s="1"/>
       <c r="O20" s="1"/>
     </row>
-    <row r="21" spans="2:16" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:16" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B21" s="6"/>
       <c r="C21" s="6"/>
       <c r="D21" s="6"/>
@@ -2998,7 +3031,7 @@
       <c r="N21" s="1"/>
       <c r="O21" s="1"/>
     </row>
-    <row r="22" spans="2:16" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:16" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B22" s="6"/>
       <c r="C22" s="6"/>
       <c r="D22" s="6"/>
@@ -3014,7 +3047,7 @@
       <c r="N22" s="1"/>
       <c r="O22" s="1"/>
     </row>
-    <row r="23" spans="2:16" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:16" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B23" s="6"/>
       <c r="C23" s="6"/>
       <c r="D23" s="6"/>
@@ -3030,7 +3063,7 @@
       <c r="N23" s="1"/>
       <c r="O23" s="1"/>
     </row>
-    <row r="24" spans="2:16" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:16" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B24" s="6"/>
       <c r="C24" s="6"/>
       <c r="D24" s="6"/>
@@ -3046,7 +3079,7 @@
       <c r="N24" s="1"/>
       <c r="O24" s="1"/>
     </row>
-    <row r="25" spans="2:16" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:16" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B25" s="6"/>
       <c r="C25" s="6"/>
       <c r="D25" s="6"/>
@@ -3062,7 +3095,7 @@
       <c r="N25" s="1"/>
       <c r="O25" s="1"/>
     </row>
-    <row r="26" spans="2:16" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:16" ht="10" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -3078,7 +3111,7 @@
       <c r="N26" s="1"/>
       <c r="O26" s="1"/>
     </row>
-    <row r="27" spans="2:16" s="7" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:16" s="7" customFormat="1" ht="50.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B27" s="9" t="s">
         <v>11</v>
       </c>
@@ -3097,7 +3130,7 @@
       <c r="O27"/>
       <c r="P27"/>
     </row>
-    <row r="28" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:16" x14ac:dyDescent="0.45">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -3113,7 +3146,7 @@
       <c r="N28" s="1"/>
       <c r="O28" s="1"/>
     </row>
-    <row r="29" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:16" x14ac:dyDescent="0.45">
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -3129,7 +3162,7 @@
       <c r="N29" s="1"/>
       <c r="O29" s="1"/>
     </row>
-    <row r="30" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:16" x14ac:dyDescent="0.45">
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
@@ -3145,7 +3178,7 @@
       <c r="N30" s="1"/>
       <c r="O30" s="1"/>
     </row>
-    <row r="31" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:16" x14ac:dyDescent="0.45">
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
@@ -3161,7 +3194,7 @@
       <c r="N31" s="1"/>
       <c r="O31" s="1"/>
     </row>
-    <row r="32" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:16" x14ac:dyDescent="0.45">
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
@@ -3177,7 +3210,7 @@
       <c r="N32" s="1"/>
       <c r="O32" s="1"/>
     </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
@@ -3193,7 +3226,7 @@
       <c r="N33" s="1"/>
       <c r="O33" s="1"/>
     </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
@@ -3209,7 +3242,7 @@
       <c r="N34" s="1"/>
       <c r="O34" s="1"/>
     </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
@@ -3225,7 +3258,7 @@
       <c r="N35" s="1"/>
       <c r="O35" s="1"/>
     </row>
-    <row r="36" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
@@ -3241,7 +3274,7 @@
       <c r="N36" s="1"/>
       <c r="O36" s="1"/>
     </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
@@ -3257,7 +3290,7 @@
       <c r="N37" s="1"/>
       <c r="O37" s="1"/>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
@@ -3273,7 +3306,7 @@
       <c r="N38" s="1"/>
       <c r="O38" s="1"/>
     </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
@@ -3289,7 +3322,7 @@
       <c r="N39" s="1"/>
       <c r="O39" s="1"/>
     </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
@@ -3305,7 +3338,7 @@
       <c r="N40" s="1"/>
       <c r="O40" s="1"/>
     </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
@@ -3321,7 +3354,7 @@
       <c r="N41" s="1"/>
       <c r="O41" s="1"/>
     </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
@@ -3337,7 +3370,7 @@
       <c r="N42" s="1"/>
       <c r="O42" s="1"/>
     </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
@@ -3353,7 +3386,7 @@
       <c r="N43" s="1"/>
       <c r="O43" s="1"/>
     </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
@@ -3369,7 +3402,7 @@
       <c r="N44" s="1"/>
       <c r="O44" s="1"/>
     </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
@@ -3385,7 +3418,7 @@
       <c r="N45" s="1"/>
       <c r="O45" s="1"/>
     </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
@@ -3401,7 +3434,7 @@
       <c r="N46" s="1"/>
       <c r="O46" s="1"/>
     </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
@@ -3417,7 +3450,7 @@
       <c r="N47" s="1"/>
       <c r="O47" s="1"/>
     </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
@@ -3433,7 +3466,7 @@
       <c r="N48" s="1"/>
       <c r="O48" s="1"/>
     </row>
-    <row r="49" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
@@ -3449,7 +3482,7 @@
       <c r="N49" s="1"/>
       <c r="O49" s="1"/>
     </row>
-    <row r="50" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
@@ -3465,7 +3498,7 @@
       <c r="N50" s="1"/>
       <c r="O50" s="1"/>
     </row>
-    <row r="51" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
@@ -3481,7 +3514,7 @@
       <c r="N51" s="1"/>
       <c r="O51" s="1"/>
     </row>
-    <row r="52" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
@@ -3497,7 +3530,7 @@
       <c r="N52" s="1"/>
       <c r="O52" s="1"/>
     </row>
-    <row r="53" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
@@ -3513,7 +3546,7 @@
       <c r="N53" s="1"/>
       <c r="O53" s="1"/>
     </row>
-    <row r="54" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
@@ -3529,7 +3562,7 @@
       <c r="N54" s="1"/>
       <c r="O54" s="1"/>
     </row>
-    <row r="55" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
@@ -3545,7 +3578,7 @@
       <c r="N55" s="1"/>
       <c r="O55" s="1"/>
     </row>
-    <row r="56" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
@@ -3561,7 +3594,7 @@
       <c r="N56" s="1"/>
       <c r="O56" s="1"/>
     </row>
-    <row r="57" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
@@ -3577,7 +3610,7 @@
       <c r="N57" s="1"/>
       <c r="O57" s="1"/>
     </row>
-    <row r="58" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
@@ -3593,7 +3626,7 @@
       <c r="N58" s="1"/>
       <c r="O58" s="1"/>
     </row>
-    <row r="59" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
@@ -3609,7 +3642,7 @@
       <c r="N59" s="1"/>
       <c r="O59" s="1"/>
     </row>
-    <row r="60" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
@@ -3625,7 +3658,7 @@
       <c r="N60" s="1"/>
       <c r="O60" s="1"/>
     </row>
-    <row r="61" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
@@ -3641,7 +3674,7 @@
       <c r="N61" s="1"/>
       <c r="O61" s="1"/>
     </row>
-    <row r="62" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
@@ -3657,7 +3690,7 @@
       <c r="N62" s="1"/>
       <c r="O62" s="1"/>
     </row>
-    <row r="63" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
@@ -3673,7 +3706,7 @@
       <c r="N63" s="1"/>
       <c r="O63" s="1"/>
     </row>
-    <row r="64" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
@@ -3715,15 +3748,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>6</xdr:col>
-                    <xdr:colOff>352425</xdr:colOff>
+                    <xdr:colOff>353786</xdr:colOff>
                     <xdr:row>2</xdr:row>
-                    <xdr:rowOff>28575</xdr:rowOff>
+                    <xdr:rowOff>27214</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
-                    <xdr:colOff>657225</xdr:colOff>
+                    <xdr:colOff>658586</xdr:colOff>
                     <xdr:row>2</xdr:row>
-                    <xdr:rowOff>409575</xdr:rowOff>
+                    <xdr:rowOff>408214</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -3737,13 +3770,13 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>6</xdr:col>
-                    <xdr:colOff>352425</xdr:colOff>
+                    <xdr:colOff>353786</xdr:colOff>
                     <xdr:row>3</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
-                    <xdr:colOff>657225</xdr:colOff>
+                    <xdr:colOff>658586</xdr:colOff>
                     <xdr:row>3</xdr:row>
                     <xdr:rowOff>381000</xdr:rowOff>
                   </to>
@@ -3759,13 +3792,13 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>6</xdr:col>
-                    <xdr:colOff>352425</xdr:colOff>
+                    <xdr:colOff>353786</xdr:colOff>
                     <xdr:row>3</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
-                    <xdr:colOff>657225</xdr:colOff>
+                    <xdr:colOff>658586</xdr:colOff>
                     <xdr:row>3</xdr:row>
                     <xdr:rowOff>381000</xdr:rowOff>
                   </to>
@@ -3781,15 +3814,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>6</xdr:col>
-                    <xdr:colOff>352425</xdr:colOff>
+                    <xdr:colOff>353786</xdr:colOff>
                     <xdr:row>3</xdr:row>
-                    <xdr:rowOff>28575</xdr:rowOff>
+                    <xdr:rowOff>27214</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
-                    <xdr:colOff>657225</xdr:colOff>
+                    <xdr:colOff>658586</xdr:colOff>
                     <xdr:row>3</xdr:row>
-                    <xdr:rowOff>409575</xdr:rowOff>
+                    <xdr:rowOff>408214</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -3803,15 +3836,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>6</xdr:col>
-                    <xdr:colOff>352425</xdr:colOff>
+                    <xdr:colOff>353786</xdr:colOff>
                     <xdr:row>4</xdr:row>
-                    <xdr:rowOff>28575</xdr:rowOff>
+                    <xdr:rowOff>27214</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
-                    <xdr:colOff>657225</xdr:colOff>
+                    <xdr:colOff>658586</xdr:colOff>
                     <xdr:row>4</xdr:row>
-                    <xdr:rowOff>409575</xdr:rowOff>
+                    <xdr:rowOff>408214</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -3825,15 +3858,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>6</xdr:col>
-                    <xdr:colOff>352425</xdr:colOff>
+                    <xdr:colOff>353786</xdr:colOff>
                     <xdr:row>5</xdr:row>
-                    <xdr:rowOff>28575</xdr:rowOff>
+                    <xdr:rowOff>27214</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
-                    <xdr:colOff>657225</xdr:colOff>
+                    <xdr:colOff>658586</xdr:colOff>
                     <xdr:row>5</xdr:row>
-                    <xdr:rowOff>409575</xdr:rowOff>
+                    <xdr:rowOff>408214</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -3847,15 +3880,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>6</xdr:col>
-                    <xdr:colOff>352425</xdr:colOff>
+                    <xdr:colOff>353786</xdr:colOff>
                     <xdr:row>6</xdr:row>
-                    <xdr:rowOff>28575</xdr:rowOff>
+                    <xdr:rowOff>27214</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
-                    <xdr:colOff>657225</xdr:colOff>
+                    <xdr:colOff>658586</xdr:colOff>
                     <xdr:row>6</xdr:row>
-                    <xdr:rowOff>409575</xdr:rowOff>
+                    <xdr:rowOff>408214</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -3869,15 +3902,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>6</xdr:col>
-                    <xdr:colOff>352425</xdr:colOff>
+                    <xdr:colOff>353786</xdr:colOff>
                     <xdr:row>7</xdr:row>
-                    <xdr:rowOff>28575</xdr:rowOff>
+                    <xdr:rowOff>27214</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
-                    <xdr:colOff>657225</xdr:colOff>
+                    <xdr:colOff>658586</xdr:colOff>
                     <xdr:row>7</xdr:row>
-                    <xdr:rowOff>409575</xdr:rowOff>
+                    <xdr:rowOff>408214</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -3891,15 +3924,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>6</xdr:col>
-                    <xdr:colOff>352425</xdr:colOff>
+                    <xdr:colOff>353786</xdr:colOff>
                     <xdr:row>8</xdr:row>
-                    <xdr:rowOff>28575</xdr:rowOff>
+                    <xdr:rowOff>27214</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
-                    <xdr:colOff>657225</xdr:colOff>
+                    <xdr:colOff>658586</xdr:colOff>
                     <xdr:row>8</xdr:row>
-                    <xdr:rowOff>409575</xdr:rowOff>
+                    <xdr:rowOff>408214</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -3913,15 +3946,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>6</xdr:col>
-                    <xdr:colOff>352425</xdr:colOff>
+                    <xdr:colOff>353786</xdr:colOff>
                     <xdr:row>9</xdr:row>
-                    <xdr:rowOff>28575</xdr:rowOff>
+                    <xdr:rowOff>27214</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
-                    <xdr:colOff>657225</xdr:colOff>
+                    <xdr:colOff>658586</xdr:colOff>
                     <xdr:row>9</xdr:row>
-                    <xdr:rowOff>409575</xdr:rowOff>
+                    <xdr:rowOff>408214</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -3935,15 +3968,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>6</xdr:col>
-                    <xdr:colOff>352425</xdr:colOff>
+                    <xdr:colOff>353786</xdr:colOff>
                     <xdr:row>10</xdr:row>
-                    <xdr:rowOff>28575</xdr:rowOff>
+                    <xdr:rowOff>27214</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
-                    <xdr:colOff>657225</xdr:colOff>
+                    <xdr:colOff>658586</xdr:colOff>
                     <xdr:row>10</xdr:row>
-                    <xdr:rowOff>409575</xdr:rowOff>
+                    <xdr:rowOff>408214</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -3957,15 +3990,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>6</xdr:col>
-                    <xdr:colOff>352425</xdr:colOff>
+                    <xdr:colOff>353786</xdr:colOff>
                     <xdr:row>11</xdr:row>
-                    <xdr:rowOff>28575</xdr:rowOff>
+                    <xdr:rowOff>27214</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
-                    <xdr:colOff>657225</xdr:colOff>
+                    <xdr:colOff>658586</xdr:colOff>
                     <xdr:row>11</xdr:row>
-                    <xdr:rowOff>409575</xdr:rowOff>
+                    <xdr:rowOff>408214</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -3979,15 +4012,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>6</xdr:col>
-                    <xdr:colOff>352425</xdr:colOff>
+                    <xdr:colOff>353786</xdr:colOff>
                     <xdr:row>12</xdr:row>
-                    <xdr:rowOff>28575</xdr:rowOff>
+                    <xdr:rowOff>27214</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
-                    <xdr:colOff>657225</xdr:colOff>
+                    <xdr:colOff>658586</xdr:colOff>
                     <xdr:row>12</xdr:row>
-                    <xdr:rowOff>409575</xdr:rowOff>
+                    <xdr:rowOff>408214</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -4001,15 +4034,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>6</xdr:col>
-                    <xdr:colOff>352425</xdr:colOff>
+                    <xdr:colOff>353786</xdr:colOff>
                     <xdr:row>13</xdr:row>
-                    <xdr:rowOff>28575</xdr:rowOff>
+                    <xdr:rowOff>27214</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
-                    <xdr:colOff>657225</xdr:colOff>
+                    <xdr:colOff>658586</xdr:colOff>
                     <xdr:row>13</xdr:row>
-                    <xdr:rowOff>409575</xdr:rowOff>
+                    <xdr:rowOff>408214</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -4023,15 +4056,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>6</xdr:col>
-                    <xdr:colOff>352425</xdr:colOff>
+                    <xdr:colOff>353786</xdr:colOff>
                     <xdr:row>14</xdr:row>
-                    <xdr:rowOff>28575</xdr:rowOff>
+                    <xdr:rowOff>27214</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
-                    <xdr:colOff>657225</xdr:colOff>
+                    <xdr:colOff>658586</xdr:colOff>
                     <xdr:row>14</xdr:row>
-                    <xdr:rowOff>409575</xdr:rowOff>
+                    <xdr:rowOff>408214</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -4045,15 +4078,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>6</xdr:col>
-                    <xdr:colOff>352425</xdr:colOff>
+                    <xdr:colOff>353786</xdr:colOff>
                     <xdr:row>15</xdr:row>
-                    <xdr:rowOff>28575</xdr:rowOff>
+                    <xdr:rowOff>27214</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
-                    <xdr:colOff>657225</xdr:colOff>
+                    <xdr:colOff>658586</xdr:colOff>
                     <xdr:row>15</xdr:row>
-                    <xdr:rowOff>409575</xdr:rowOff>
+                    <xdr:rowOff>408214</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -4067,15 +4100,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>6</xdr:col>
-                    <xdr:colOff>352425</xdr:colOff>
+                    <xdr:colOff>353786</xdr:colOff>
                     <xdr:row>16</xdr:row>
-                    <xdr:rowOff>28575</xdr:rowOff>
+                    <xdr:rowOff>27214</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
-                    <xdr:colOff>657225</xdr:colOff>
+                    <xdr:colOff>658586</xdr:colOff>
                     <xdr:row>16</xdr:row>
-                    <xdr:rowOff>409575</xdr:rowOff>
+                    <xdr:rowOff>408214</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -4089,15 +4122,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>6</xdr:col>
-                    <xdr:colOff>352425</xdr:colOff>
+                    <xdr:colOff>353786</xdr:colOff>
                     <xdr:row>17</xdr:row>
-                    <xdr:rowOff>28575</xdr:rowOff>
+                    <xdr:rowOff>27214</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
-                    <xdr:colOff>657225</xdr:colOff>
+                    <xdr:colOff>658586</xdr:colOff>
                     <xdr:row>17</xdr:row>
-                    <xdr:rowOff>409575</xdr:rowOff>
+                    <xdr:rowOff>408214</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -4111,15 +4144,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>6</xdr:col>
-                    <xdr:colOff>352425</xdr:colOff>
+                    <xdr:colOff>353786</xdr:colOff>
                     <xdr:row>18</xdr:row>
-                    <xdr:rowOff>28575</xdr:rowOff>
+                    <xdr:rowOff>27214</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
-                    <xdr:colOff>657225</xdr:colOff>
+                    <xdr:colOff>658586</xdr:colOff>
                     <xdr:row>18</xdr:row>
-                    <xdr:rowOff>409575</xdr:rowOff>
+                    <xdr:rowOff>408214</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -4133,15 +4166,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>6</xdr:col>
-                    <xdr:colOff>352425</xdr:colOff>
+                    <xdr:colOff>353786</xdr:colOff>
                     <xdr:row>19</xdr:row>
-                    <xdr:rowOff>28575</xdr:rowOff>
+                    <xdr:rowOff>27214</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
-                    <xdr:colOff>657225</xdr:colOff>
+                    <xdr:colOff>658586</xdr:colOff>
                     <xdr:row>19</xdr:row>
-                    <xdr:rowOff>409575</xdr:rowOff>
+                    <xdr:rowOff>408214</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -4155,15 +4188,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>6</xdr:col>
-                    <xdr:colOff>352425</xdr:colOff>
+                    <xdr:colOff>353786</xdr:colOff>
                     <xdr:row>20</xdr:row>
-                    <xdr:rowOff>28575</xdr:rowOff>
+                    <xdr:rowOff>27214</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
-                    <xdr:colOff>657225</xdr:colOff>
+                    <xdr:colOff>658586</xdr:colOff>
                     <xdr:row>20</xdr:row>
-                    <xdr:rowOff>409575</xdr:rowOff>
+                    <xdr:rowOff>408214</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -4177,15 +4210,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>6</xdr:col>
-                    <xdr:colOff>352425</xdr:colOff>
+                    <xdr:colOff>353786</xdr:colOff>
                     <xdr:row>21</xdr:row>
-                    <xdr:rowOff>28575</xdr:rowOff>
+                    <xdr:rowOff>27214</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
-                    <xdr:colOff>657225</xdr:colOff>
+                    <xdr:colOff>658586</xdr:colOff>
                     <xdr:row>21</xdr:row>
-                    <xdr:rowOff>409575</xdr:rowOff>
+                    <xdr:rowOff>408214</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -4199,15 +4232,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>6</xdr:col>
-                    <xdr:colOff>352425</xdr:colOff>
+                    <xdr:colOff>353786</xdr:colOff>
                     <xdr:row>22</xdr:row>
-                    <xdr:rowOff>28575</xdr:rowOff>
+                    <xdr:rowOff>27214</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
-                    <xdr:colOff>657225</xdr:colOff>
+                    <xdr:colOff>658586</xdr:colOff>
                     <xdr:row>22</xdr:row>
-                    <xdr:rowOff>409575</xdr:rowOff>
+                    <xdr:rowOff>408214</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -4221,15 +4254,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>6</xdr:col>
-                    <xdr:colOff>352425</xdr:colOff>
+                    <xdr:colOff>353786</xdr:colOff>
                     <xdr:row>23</xdr:row>
-                    <xdr:rowOff>28575</xdr:rowOff>
+                    <xdr:rowOff>27214</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
-                    <xdr:colOff>657225</xdr:colOff>
+                    <xdr:colOff>658586</xdr:colOff>
                     <xdr:row>23</xdr:row>
-                    <xdr:rowOff>409575</xdr:rowOff>
+                    <xdr:rowOff>408214</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -4243,15 +4276,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>6</xdr:col>
-                    <xdr:colOff>352425</xdr:colOff>
+                    <xdr:colOff>353786</xdr:colOff>
                     <xdr:row>24</xdr:row>
-                    <xdr:rowOff>28575</xdr:rowOff>
+                    <xdr:rowOff>27214</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
-                    <xdr:colOff>657225</xdr:colOff>
+                    <xdr:colOff>658586</xdr:colOff>
                     <xdr:row>24</xdr:row>
-                    <xdr:rowOff>409575</xdr:rowOff>
+                    <xdr:rowOff>408214</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
